--- a/Data/Processing/2024-02-02/HINDUNILVR.xlsx
+++ b/Data/Processing/2024-02-02/HINDUNILVR.xlsx
@@ -1122,7 +1122,7 @@
         <v>2468.49</v>
       </c>
       <c r="E12">
-        <v>2476.96</v>
+        <v>2476.95</v>
       </c>
       <c r="F12">
         <v>2488.38</v>
@@ -1175,7 +1175,7 @@
         <v>2472.97</v>
       </c>
       <c r="F13">
-        <v>2476.96</v>
+        <v>2476.95</v>
       </c>
       <c r="G13">
         <v>632091</v>
@@ -1193,7 +1193,7 @@
         <v>-0.39</v>
       </c>
       <c r="L13">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="M13">
         <v>0.13</v>
@@ -1719,7 +1719,7 @@
         <v>2463.07</v>
       </c>
       <c r="D24">
-        <v>2429.39</v>
+        <v>2429.4</v>
       </c>
       <c r="E24">
         <v>2447.02</v>
@@ -1749,7 +1749,7 @@
         <v>0.7200000000000001</v>
       </c>
       <c r="N24">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -2069,7 +2069,7 @@
         <v>2445.15</v>
       </c>
       <c r="D31">
-        <v>2402.41</v>
+        <v>2402.42</v>
       </c>
       <c r="E31">
         <v>2409.9</v>
@@ -2802,7 +2802,7 @@
         <v>0.87</v>
       </c>
       <c r="O45">
-        <v>2474.321818181818</v>
+        <v>2474.321590909091</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>1.46</v>
       </c>
       <c r="O46">
-        <v>2471.640909090909</v>
+        <v>2471.640681818182</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>1.48</v>
       </c>
       <c r="O47">
-        <v>2469.371818181818</v>
+        <v>2469.371590909091</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>1.46</v>
       </c>
       <c r="O48">
-        <v>2468.2675</v>
+        <v>2468.267272727273</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>1.17</v>
       </c>
       <c r="O49">
-        <v>2467.333181818182</v>
+        <v>2467.332954545455</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>1.48</v>
       </c>
       <c r="O50">
-        <v>2466.100227272727</v>
+        <v>2466.1</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>2.08</v>
       </c>
       <c r="O51">
-        <v>2464.200454545454</v>
+        <v>2464.200227272727</v>
       </c>
       <c r="P51">
         <v>1</v>
@@ -3152,7 +3152,7 @@
         <v>0.96</v>
       </c>
       <c r="O52">
-        <v>2462.341818181818</v>
+        <v>2462.341590909091</v>
       </c>
       <c r="P52">
         <v>1</v>
@@ -3202,7 +3202,7 @@
         <v>1.19</v>
       </c>
       <c r="O53">
-        <v>2460.555</v>
+        <v>2460.554772727273</v>
       </c>
       <c r="P53">
         <v>1</v>
@@ -3252,7 +3252,7 @@
         <v>0.87</v>
       </c>
       <c r="O54">
-        <v>2459.257045454545</v>
+        <v>2459.256818181818</v>
       </c>
       <c r="P54">
         <v>1</v>
@@ -3302,7 +3302,7 @@
         <v>1.44</v>
       </c>
       <c r="O55">
-        <v>2458.892272727273</v>
+        <v>2458.892045454545</v>
       </c>
       <c r="P55">
         <v>1</v>
@@ -3402,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="O57">
-        <v>2456.638636363636</v>
+        <v>2456.638636363637</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>1.52</v>
       </c>
       <c r="O59">
-        <v>2455.016363636364</v>
+        <v>2455.016363636363</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>1.81</v>
       </c>
       <c r="O67">
-        <v>2469.769545454546</v>
+        <v>2469.769545454545</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>2637.36</v>
       </c>
       <c r="D68">
-        <v>2609.98</v>
+        <v>2609.99</v>
       </c>
       <c r="E68">
         <v>2634.9</v>
@@ -3952,7 +3952,7 @@
         <v>1.04</v>
       </c>
       <c r="O68">
-        <v>2474.039545454545</v>
+        <v>2474.039545454546</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>1.01</v>
       </c>
       <c r="O69">
-        <v>2478.523181818182</v>
+        <v>2478.523181818181</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>2560.8</v>
       </c>
       <c r="E71">
-        <v>2600.97</v>
+        <v>2600.98</v>
       </c>
       <c r="F71">
         <v>2587.29</v>
@@ -4102,7 +4102,7 @@
         <v>1.84</v>
       </c>
       <c r="O71">
-        <v>2486.321136363636</v>
+        <v>2486.321363636363</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4125,7 +4125,7 @@
         <v>2597.68</v>
       </c>
       <c r="F72">
-        <v>2600.97</v>
+        <v>2600.98</v>
       </c>
       <c r="G72">
         <v>768232</v>
@@ -4143,7 +4143,7 @@
         <v>-0.46</v>
       </c>
       <c r="L72">
-        <v>-6.35</v>
+        <v>-6.36</v>
       </c>
       <c r="M72">
         <v>-0.65</v>
@@ -4152,7 +4152,7 @@
         <v>1.23</v>
       </c>
       <c r="O72">
-        <v>2490.699772727273</v>
+        <v>2490.7</v>
       </c>
       <c r="P72">
         <v>0</v>
@@ -4202,7 +4202,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="O73">
-        <v>2495.6725</v>
+        <v>2495.672727272728</v>
       </c>
       <c r="P73">
         <v>0</v>
@@ -4252,7 +4252,7 @@
         <v>1.15</v>
       </c>
       <c r="O74">
-        <v>2499.154545454545</v>
+        <v>2499.154772727273</v>
       </c>
       <c r="P74">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>1.75</v>
       </c>
       <c r="O75">
-        <v>2502.507954545455</v>
+        <v>2502.508181818182</v>
       </c>
       <c r="P75">
         <v>0</v>
@@ -4352,7 +4352,7 @@
         <v>2.06</v>
       </c>
       <c r="O76">
-        <v>2505.666818181818</v>
+        <v>2505.667045454545</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>1.29</v>
       </c>
       <c r="O77">
-        <v>2509.867272727273</v>
+        <v>2509.8675</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>0.53</v>
       </c>
       <c r="O78">
-        <v>2513.899772727273</v>
+        <v>2513.9</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>1.58</v>
       </c>
       <c r="O79">
-        <v>2517.982954545455</v>
+        <v>2517.983181818182</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4519,7 +4519,7 @@
         <v>2689.4</v>
       </c>
       <c r="D80">
-        <v>2613.82</v>
+        <v>2613.83</v>
       </c>
       <c r="E80">
         <v>2656.56</v>
@@ -4552,7 +4552,7 @@
         <v>2.88</v>
       </c>
       <c r="O80">
-        <v>2522.841363636364</v>
+        <v>2522.841590909091</v>
       </c>
       <c r="P80">
         <v>0</v>
@@ -4602,7 +4602,7 @@
         <v>1.72</v>
       </c>
       <c r="O81">
-        <v>2527.713181818182</v>
+        <v>2527.713409090909</v>
       </c>
       <c r="P81">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>1.39</v>
       </c>
       <c r="O82">
-        <v>2532.479772727273</v>
+        <v>2532.48</v>
       </c>
       <c r="P82">
         <v>0</v>
@@ -4702,7 +4702,7 @@
         <v>1.4</v>
       </c>
       <c r="O83">
-        <v>2536.067045454545</v>
+        <v>2536.067272727273</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -4752,7 +4752,7 @@
         <v>1.77</v>
       </c>
       <c r="O84">
-        <v>2539.554772727273</v>
+        <v>2539.555</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>1.72</v>
       </c>
       <c r="O85">
-        <v>2542.772954545454</v>
+        <v>2542.773181818182</v>
       </c>
       <c r="P85">
         <v>0</v>
@@ -4852,7 +4852,7 @@
         <v>2.56</v>
       </c>
       <c r="O86">
-        <v>2543.969318181818</v>
+        <v>2543.969545454545</v>
       </c>
       <c r="P86">
         <v>0</v>
@@ -4902,7 +4902,7 @@
         <v>0.91</v>
       </c>
       <c r="O87">
-        <v>2545.719318181818</v>
+        <v>2545.719545454545</v>
       </c>
       <c r="P87">
         <v>0</v>
@@ -4952,7 +4952,7 @@
         <v>2.64</v>
       </c>
       <c r="O88">
-        <v>2548.936363636364</v>
+        <v>2548.936590909091</v>
       </c>
       <c r="P88">
         <v>0</v>
@@ -5002,7 +5002,7 @@
         <v>1.88</v>
       </c>
       <c r="O89">
-        <v>2552.315681818182</v>
+        <v>2552.315909090909</v>
       </c>
       <c r="P89">
         <v>0</v>
@@ -5052,7 +5052,7 @@
         <v>1.45</v>
       </c>
       <c r="O90">
-        <v>2555.913181818182</v>
+        <v>2555.913409090909</v>
       </c>
       <c r="P90">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>1.52</v>
       </c>
       <c r="O91">
-        <v>2559.929090909091</v>
+        <v>2559.929318181818</v>
       </c>
       <c r="P91">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>1.35</v>
       </c>
       <c r="O92">
-        <v>2563.36</v>
+        <v>2563.360227272727</v>
       </c>
       <c r="P92">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>1.21</v>
       </c>
       <c r="O93">
-        <v>2566.871590909091</v>
+        <v>2566.871818181818</v>
       </c>
       <c r="P93">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>1.43</v>
       </c>
       <c r="O94">
-        <v>2570.605681818182</v>
+        <v>2570.605909090909</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -5302,7 +5302,7 @@
         <v>1.1</v>
       </c>
       <c r="O95">
-        <v>2574.710454545454</v>
+        <v>2574.710681818181</v>
       </c>
       <c r="P95">
         <v>0</v>
@@ -5352,7 +5352,7 @@
         <v>1.25</v>
       </c>
       <c r="O96">
-        <v>2578.408181818182</v>
+        <v>2578.408409090909</v>
       </c>
       <c r="P96">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>1.21</v>
       </c>
       <c r="O97">
-        <v>2582.302272727273</v>
+        <v>2582.3025</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5452,7 +5452,7 @@
         <v>0.97</v>
       </c>
       <c r="O98">
-        <v>2586.387727272727</v>
+        <v>2586.387954545455</v>
       </c>
       <c r="P98">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="O99">
-        <v>2590.017727272727</v>
+        <v>2590.017954545455</v>
       </c>
       <c r="P99">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>1.3</v>
       </c>
       <c r="O100">
-        <v>2595.188863636364</v>
+        <v>2595.189090909091</v>
       </c>
       <c r="P100">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>1.73</v>
       </c>
       <c r="O101">
-        <v>2601.137272727273</v>
+        <v>2601.1375</v>
       </c>
       <c r="P101">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>1.17</v>
       </c>
       <c r="O102">
-        <v>2607.1875</v>
+        <v>2607.187727272727</v>
       </c>
       <c r="P102">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>2.34</v>
       </c>
       <c r="O103">
-        <v>2613.730227272727</v>
+        <v>2613.730454545454</v>
       </c>
       <c r="P103">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>1.06</v>
       </c>
       <c r="O104">
-        <v>2619.836818181818</v>
+        <v>2619.837045454546</v>
       </c>
       <c r="P104">
         <v>0</v>
@@ -5802,7 +5802,7 @@
         <v>2.86</v>
       </c>
       <c r="O105">
-        <v>2624.746590909091</v>
+        <v>2624.746818181818</v>
       </c>
       <c r="P105">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>2.23</v>
       </c>
       <c r="O106">
-        <v>2628.370909090909</v>
+        <v>2628.371136363636</v>
       </c>
       <c r="P106">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>2.66</v>
       </c>
       <c r="O107">
-        <v>2632.636818181818</v>
+        <v>2632.637045454545</v>
       </c>
       <c r="P107">
         <v>1</v>
@@ -5952,7 +5952,7 @@
         <v>2.31</v>
       </c>
       <c r="O108">
-        <v>2636.503636363636</v>
+        <v>2636.503863636364</v>
       </c>
       <c r="P108">
         <v>1</v>
@@ -6002,7 +6002,7 @@
         <v>1.35</v>
       </c>
       <c r="O109">
-        <v>2638.382954545455</v>
+        <v>2638.383181818182</v>
       </c>
       <c r="P109">
         <v>1</v>
@@ -6052,7 +6052,7 @@
         <v>1.34</v>
       </c>
       <c r="O110">
-        <v>2640.069545454545</v>
+        <v>2640.069772727273</v>
       </c>
       <c r="P110">
         <v>1</v>
@@ -6102,7 +6102,7 @@
         <v>1.24</v>
       </c>
       <c r="O111">
-        <v>2640.995</v>
+        <v>2640.995227272727</v>
       </c>
       <c r="P111">
         <v>0</v>
@@ -6152,7 +6152,7 @@
         <v>0.89</v>
       </c>
       <c r="O112">
-        <v>2641.639772727273</v>
+        <v>2641.64</v>
       </c>
       <c r="P112">
         <v>0</v>
@@ -6202,7 +6202,7 @@
         <v>1.34</v>
       </c>
       <c r="O113">
-        <v>2642.348636363636</v>
+        <v>2642.348863636364</v>
       </c>
       <c r="P113">
         <v>1</v>
@@ -6252,7 +6252,7 @@
         <v>2.18</v>
       </c>
       <c r="O114">
-        <v>2644.536818181818</v>
+        <v>2644.537045454545</v>
       </c>
       <c r="P114">
         <v>1</v>
